--- a/Reader.xlsx
+++ b/Reader.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\library-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\doumamaypath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D48D4A-3692-4AC2-9BA6-4A64403465E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AC2D26-6D94-47C6-8D04-29A334356E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="615" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -61,9 +61,6 @@
     <t xml:space="preserve">Vũ Đức Tình </t>
   </si>
   <si>
-    <t>Sinh Viên</t>
-  </si>
-  <si>
     <t>Công nghệ thông tin</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Ngô Lê Huệ Ngân</t>
   </si>
   <si>
-    <t>"02/01/2003"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bình Tân </t>
   </si>
   <si>
@@ -103,25 +97,16 @@
     <t xml:space="preserve">Trần Thị Thủy </t>
   </si>
   <si>
+    <t xml:space="preserve">Bình Chánh </t>
+  </si>
+  <si>
+    <t>thuy@gmail.com</t>
+  </si>
+  <si>
+    <t>Lớp</t>
+  </si>
+  <si>
     <t>Giảng Viên</t>
-  </si>
-  <si>
-    <t>a1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bình Chánh </t>
-  </si>
-  <si>
-    <t>thuy@gmail.com</t>
-  </si>
-  <si>
-    <t>0969280515</t>
-  </si>
-  <si>
-    <t>0984234425</t>
-  </si>
-  <si>
-    <t>0932442522</t>
   </si>
 </sst>
 </file>
@@ -456,21 +441,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,158 +472,161 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>3121410510</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>36203016461</v>
+      </c>
+      <c r="G2" s="1">
+        <v>37653</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>3620301661</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="3">
+        <v>969280515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>3121410361</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>3620301662</v>
-      </c>
-      <c r="F3" s="1">
-        <v>37289</v>
-      </c>
-      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>36203416461</v>
+      </c>
+      <c r="G3" s="1">
+        <v>37653</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="4">
+        <v>984234425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>3121410362</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>3620301663</v>
-      </c>
-      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>36203012461</v>
+      </c>
+      <c r="G4" s="1">
         <v>37258</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4">
+        <v>932442522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>3121410363</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>66203016461</v>
+      </c>
+      <c r="G5" s="1">
+        <v>37259</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>3620301664</v>
-      </c>
-      <c r="F5" s="1">
-        <v>37259</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>31</v>
+      <c r="K5" s="4">
+        <v>932442522</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{D1BA511A-7D3F-44FD-8B04-F2A85BAE6EB4}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{F4FB54A9-D48F-43AD-AC7A-D78C25EA7FD4}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{8E20B5F4-CAE1-4C9B-BFF9-2F11719B44F6}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{1247C08D-AF6E-499D-8E07-D717BC340620}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{8BDCF2D5-EE32-42FB-BDDA-7A3DC95FDB47}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{F6051E36-3BFD-476E-9B90-9B7DE1BB297D}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{18BF90E3-6B2F-4EC4-AD5A-312801846A21}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{972FF6A6-2B94-48D4-AF8F-56FBD1665DB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -644,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7193DF-13FD-408E-BBE2-29BBDD0CD32C}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,176 +646,10 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>3121410510</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>3620301661</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>3121410361</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>3620301662</v>
-      </c>
-      <c r="F3" s="1">
-        <v>37289</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>3121410362</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>3620301663</v>
-      </c>
-      <c r="F4" s="1">
-        <v>37258</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>3620301664</v>
-      </c>
-      <c r="F5" s="1">
-        <v>37259</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{972FF6A6-2B94-48D4-AF8F-56FBD1665DB1}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{8BDCF2D5-EE32-42FB-BDDA-7A3DC95FDB47}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{F6051E36-3BFD-476E-9B90-9B7DE1BB297D}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{18BF90E3-6B2F-4EC4-AD5A-312801846A21}"/>
-  </hyperlinks>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>